--- a/SPPSApi/Doc/Template/fs0305_Export.xlsx
+++ b/SPPSApi/Doc/Template/fs0305_Export.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED72E2-DC87-4A55-B32B-3DD847217057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0F8EDC-2243-43D8-90E0-97F54DA63C4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>变更事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产商名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内外区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,18 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应结果可否确认结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防锈对应可否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>延期说明/NG理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,35 +91,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>补给</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行标准区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行标准NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产商地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商切替日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TFTM调整日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法规确认</t>
+    <t>内外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应可否确认结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应不可理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商切替日期-补给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商切替日期-号口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行标准No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型4年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型6年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型7年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型8年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型9年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型11年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型12年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型13年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型14年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型15年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,12 +224,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,26 +278,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,51 +668,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="23.21875" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="26" max="26" width="14.21875" customWidth="1"/>
-    <col min="27" max="27" width="17.88671875" customWidth="1"/>
-    <col min="28" max="28" width="13.5546875" customWidth="1"/>
+    <col min="1" max="2" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="3.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="21.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.54296875" style="8" customWidth="1"/>
+    <col min="29" max="29" width="11.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="39" width="8.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="45" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -635,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -650,112 +732,191 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="3"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="U2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:R1"/>
+  <mergeCells count="43">
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -763,12 +924,15 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -782,7 +946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,7 +959,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
